--- a/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho_serial.xlsx
+++ b/2.Design/Template/Thong_tin_chi_tiet_hang_trong_kho_serial.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43579871-6413-407E-B696-FF8AC048D339}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F2B627-E9ED-4B23-AE34-E91F16D8E261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,6 +236,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -247,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +541,7 @@
   <cols>
     <col min="1" max="1" width="4.81640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.08984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" style="4" customWidth="1"/>
     <col min="6" max="7" width="8.08984375" style="4" customWidth="1"/>
@@ -553,48 +553,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -610,10 +610,10 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -629,10 +629,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -671,19 +671,19 @@
       <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="10" t="s">
